--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/32_Eskişehir_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/32_Eskişehir_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C1E6E1-137A-45AF-92B8-B6EFDE8F28DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75815867-0802-40C9-956D-7FC9EE4F08D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{036BDA01-B2C2-4E5E-9D00-6BA960B41B6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A863E145-48D0-44FD-8F93-DC7FAAC1DF1C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{A9B83396-C426-4C08-AE48-4855B66E8CC3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{DF4BC484-E486-40A8-B4A0-79E744A663DF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{DDE63EF7-054E-4620-9A47-0A0C80812FF1}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{3B502B92-BE26-41DF-99E6-6B657324528F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{267CF301-F884-4C59-8193-F73C55D2C2C5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{8F257A6C-6ACD-46BA-858F-C01ED5F9EAEC}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{66018A10-E2FB-4CC4-A9D6-1DC01C53916F}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{09A3F786-C66C-403A-8523-FA0E7B578903}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB022D-7D4B-4DF0-A10C-466DC4AC1605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDB0B7-CB59-40DF-BD14-4CCBD1B9DF18}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2471,18 +2471,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{13952312-1F52-4033-8FA9-1AF8BDF1AE10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{823ACA8B-41F0-4FE2-AD55-D969930FF29E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{01BF9664-F9C8-4571-9C11-E315EEF3B60B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{775766EB-A71A-4B7C-823A-76826B5DEE03}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8D9AD076-6C27-453A-A7D9-B671FE3E286F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CBDAD769-FB3D-4333-ABB6-D229D5E3D6F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2B214D2D-18D6-4A02-B16E-A52984C833B7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1BC66D40-2746-4EA5-A4D0-5EB8064AC3BC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2DEF5EC3-011A-40D4-9B86-65F99D76C73A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0D5B186F-10BB-4ED6-884D-3E67AA2C1458}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2B099ED1-15D0-4031-91FF-DD1B283EF765}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{74337F89-5828-43FA-BAF4-1F9EE20F41B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{14AB6D8D-7D87-4D96-B305-63B7D99E1996}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{53A7CE7E-44CA-45C2-A6AC-03ECF106CDE2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7028E7C0-D4A6-423B-894B-C0549730D399}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64122351-9D35-4DBB-B52C-79EC02FED268}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4B2C80CC-8FBA-415C-81DD-0F9A4A85EA90}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF9461A0-0F83-4EC9-BA6D-47E7520E7005}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1BE599EA-5EB3-4BBC-8F57-411F4C8BA394}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{48C5AB4E-2E7F-4861-BC89-4719C199F561}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0ECC38CA-6EF3-4AFF-B57F-4488C95E13C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9EB14D4C-F908-413D-9B04-F94E5792ECA4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E0ACCB69-2B06-41EB-885C-1F924E076485}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9CDD7340-A3BA-43FA-AEB5-83D9A3011073}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2495,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC05215-7A7A-4501-9312-F797D4213F8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBB73DA-FC83-4D90-B8DE-07484AF06DB0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3714,18 +3714,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B84A8C9A-0658-4E38-8878-EDE89781EB49}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1C863AA5-3F44-4A19-A915-8A5F542EB192}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1F1BBC68-18AF-43EF-A15B-61AFD8D09073}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{430E2259-2F59-465D-897E-9B16A4B1E264}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4591FC20-3CEF-4117-8D07-F07EE3CB91F2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FC315CE5-1948-4C50-A34F-9641C054BF86}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D6D3285B-0714-48FD-95E8-DC61AE729183}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB668EF9-5C3D-4F76-8F25-F870FCEEA381}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{176EAD85-E539-4581-BCAE-91A769D409C2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{540719E1-BFC0-466B-8B0E-C34C8F416C37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55DB9D52-2596-44F5-8A52-175FFC541B08}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BBD94D6C-B9E5-4DAB-A253-D986D7B65204}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{961C653F-5288-42DE-B8DC-A13E7E52D12E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B2E09608-2932-4AF0-A62D-9AC23AA5E875}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5B558F3D-367A-4D88-B48E-5938F73B2CD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AF83F50F-2A0D-4B92-9BE2-A0C8DE192023}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1C90523-5583-4D81-8F9F-598E6C1C8A15}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6A4C2AFF-2A7A-4085-A587-AD5722B460C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{30B06CCD-7E8C-47B9-A677-3CCC5A5E6658}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5A6CA55F-E5D5-44BE-A7EC-0FF5B31D1791}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D1FD4A96-1A16-45DC-BFE1-FF076EFA7BC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D474E3E2-9367-4584-ABC6-8A09424C0082}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E62B9010-82B6-47D9-9691-728148E05054}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6287DFAD-2D6E-4491-B426-778B1619A325}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3738,7 +3738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188221F0-4297-419E-B242-784C0D0075C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E6253D-3976-4D8E-9231-B2115C101313}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4953,18 +4953,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{912CBF44-957D-4850-86BF-749BDDA10EC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D7FF823B-53EE-447E-889F-441380078530}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{85B17A72-88A0-4058-AF13-A78A3FD0B742}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1480F2AF-903A-4854-847D-3AEE3A49B050}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3B844A3A-67E9-48F5-82A4-2C85F0D353A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{036AAF99-B7E0-4960-9862-8C7DFAC85138}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{910D55AB-DAF9-4AA8-B25C-9C08C29E4004}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{55E82B72-4E8C-487B-810A-0A7E0B483A25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A8136CAD-FE55-4D29-9CCA-8D0023337BBC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{836AB9A5-2870-475D-87F1-2E7095D820AE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3600C5A9-0EFC-4393-BADD-66B00DA9ED1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{684CB512-8628-4C3C-8918-77B346ECC44B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99DD7C53-7A84-4EC0-B21F-4113318AC6C0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9245DE40-E756-4D87-98BF-F02779824B38}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{21AAEB16-D8F7-4343-BB35-11AF83953709}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{865CA348-5913-4224-9DF4-6CF3BD6D26CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4F7BE900-C193-4AD3-B027-F55DB1C44ACF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EB2A5ADF-D193-414D-AD95-867E429E2297}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AC5A434A-E65E-4E8E-9876-A1132C161FB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{73A65C73-DD89-4970-842F-B8B1EDDA6E00}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB66DA1D-1D9F-4521-B0B6-9941F57282A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F9962745-0D34-4B82-B094-F21229F4E996}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5B859C22-6697-436D-B2B1-F50BCD628E5F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C1849FCA-E588-43B2-ACC9-928A8D1C817A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4977,7 +4977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA441427-D176-4477-AE20-7CC20A0E78B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D814AA95-18F5-49A5-8755-D2A2EAA3C2E1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6196,18 +6196,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{327C0F0C-B6DF-4288-A70C-2161810C7342}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EFC5E8CC-0781-403A-962F-E94C16AD5730}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{238CD1E6-1507-447A-9301-52FCD07D4F1B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9560C8CA-8AFA-4953-9E8B-5D78C844A7B8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8B3B3CA3-D1C2-4B83-91BE-882AE3D9F70A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7D94FF11-49AD-4DD5-981F-3929BB813213}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{73C5AC68-2E23-438D-BA02-1050C7A4465C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{153522C3-07AE-4C86-B64B-B9A416A1A760}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B065945B-1834-4498-9C4E-7F9205B3EE61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A09B822A-C6AC-4AB2-BE66-A2C40C75F2B8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C5FD841B-7D95-4699-801E-BC33506693CC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A9ED66E4-B270-4C68-9FCD-3888DCB5B6CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F376403-287D-46F6-8AB4-787D0A1A8CD3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A2B04E16-3C4B-4B16-9960-21C9956A788E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A33FF1F2-D139-4F8B-81BC-22DDF9E75F80}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5B556C81-D370-4D80-A07A-635FC204A3CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FC8D5C4E-8468-424F-8BEA-BD86B7640500}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4C7FB617-DFE1-4E43-8A74-549FCB5962BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9748A376-B0F0-4457-B532-0C3DBC45FAA8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{823217B4-C668-48AB-ADC0-38F3673B5DBC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{40D44704-7E86-4D87-B0EB-551C55911B5B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1CAA3C55-D894-485D-8FF9-CB40F096BE11}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2CBC725A-C117-4C97-A446-D7BD1F38DD23}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E53B257-13DC-4B87-BCC2-8D854DB32AA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6220,7 +6220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C426FF-2F1A-4439-BBBC-91B7B1BF0881}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A20DBD6-9783-4630-A492-07B953E72CD5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7463,18 +7463,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6F682862-A899-4123-89ED-57E6DE5AD54F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{797002B9-A2A9-4CA7-813F-5BD189D25D1A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{16B9C44B-D5A7-4086-AD18-C01F993C6A40}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D0E72B9D-FF05-4CB7-8E86-E1F9A272DA9F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{860CC152-3FC1-4BC1-B875-456D35F5B28B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{889509AA-B818-4618-B246-8C9224CCF8F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4179CC2-EE09-4E19-A8E3-71311337BCB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F473B65F-CE34-4587-9079-D7AA7981685E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D18C994D-DCAC-4F06-9061-338C0562B121}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1F5B626E-C5E9-4E4E-A441-BC88A823C07C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{367FE512-E508-4A2E-B992-8CEDFB3A1644}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{50F60907-18F6-4747-9899-EA3E88BCD6B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{158B1535-BCBA-43F8-9A3B-B5D3A6FEEB47}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B1259B06-A28B-4D44-A26C-093266D72C3E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{63591C8D-070C-4B90-9665-D0AA4135B05D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6D22506C-DDDD-449E-A5A2-72B34D899335}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{54F61FBB-62C6-48F7-9122-A52A5900F528}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0119919A-BE3B-497F-8330-C2B9314839A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7B85FDF4-F5E2-47BF-96DF-5C1BB2EA3AE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FA3A99A9-FB41-45F5-9172-1778C26F2024}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB73F868-B5A8-49B2-8BD8-05FB59027CB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E71F7BE3-7541-40C3-91BF-66F4655B857F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{70DE2585-FC76-42CA-849B-EA7D8F877B62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{700BBDBE-6448-4B08-B67F-03088BEB6336}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7487,7 +7487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A71DEC-D2E0-4364-BC97-ED129ADC6912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB41CCC-A52C-4291-9BF0-296FB98006DD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8728,18 +8728,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C8ED6B2C-F710-4993-ABD1-8691D0DA865B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A0E238B4-99BA-4562-B05C-304A86E47E08}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{84A40906-3049-4356-AC15-2A3E4D14DA6C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A362D21-C404-4685-9D4B-9905CC5B6310}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{965E75CE-F2D2-4517-8F6A-2E476A8E1EF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{43F3B700-590A-4645-A9AC-21B5693F3F81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D4A01637-0349-4FEA-B1B7-278709EB851A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DE6EFE8F-E702-4146-AADE-00B4834C12BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A796F184-205E-4163-AE44-A4F4F98E0337}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9F206077-BBD0-4871-9175-E4F079544096}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5B5D94C8-3C01-4B51-809C-2983EFC3D302}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F9CE61CA-A4DC-4AA5-8CFA-67D16B95DB07}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F259647F-B7F1-4849-9674-E950231E3AE4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4C919ED1-0FAA-4EDD-9BD1-738C08EF6F69}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{17C7057F-DC61-473F-8398-B39A83A20892}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DD981E1D-9F6C-49CD-B62B-70CC9C959D1D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EB7A346E-4B0B-462F-8936-0CBC5B644942}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E96187D9-1DCA-4905-8FD2-FF67CC530225}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E953CF00-1EFA-486E-AE3D-63F8CB70EE4F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4A503E9F-ED80-47DF-8FD8-4500793DC0FF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB16371A-BA89-4342-8F5A-1CB791ACEAD1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FDD15FB8-9FB4-47E6-91C0-657BB77F0EF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0E3ABAC4-AA3E-45FF-9D1F-63673FBF3FFC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A74B3455-5C58-46E7-8735-D060AF7441EF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8752,7 +8752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D61ED05-A5DF-4CE8-B2A1-08EA58CFEFE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C251F7D-081E-4FAA-A9F7-E8999DF346BF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9993,18 +9993,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{65F3ED1E-C87B-493A-827F-E18BC449DF15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{93D40A04-F150-47FA-A43F-A04F433DDA24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FAA7A868-4744-4FCC-BB9E-A1A4949E7C2F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{66D51316-A771-49F0-9B09-B368F6B5ACC4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D6A48F33-1E3B-478A-8A82-4557912A9E31}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8061CDD7-AD35-4763-A334-DAFB7159C1E2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DDFC22DF-6A43-4605-B8DC-BE5B65F44B17}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{83B5C7F5-B331-4458-AE38-4DE42A83382C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D6771794-6FBA-417B-8CDC-58A8F828EA9A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BF6FD5D0-264C-49E1-8595-FDC38B50229B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9B2975E-2792-4871-8869-09B3D0111227}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{91300513-42BA-4B20-934C-64D03535B8FF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E4FE2167-C3AC-4D70-BF99-36C9B3EC61D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D7CE87E-D5E8-43E3-A267-2BFA51F0CB85}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5EED853A-2E0E-4EC2-A040-796B95BA8EDA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{62DF1DD3-24DD-4530-A62F-F3FA04962CB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{81555E61-8DE5-4ACF-9535-85121AB41115}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CCA0CFF1-DEDD-4694-A1FE-508C38555103}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{104946ED-92D8-4B9C-882F-74AC5D997483}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EA805C26-5CE4-437F-A4A9-96C96B7B60CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB8F1BF8-F271-4A45-A945-F9057C9E38C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{07346881-8182-4EFA-A8DA-E44EC2AE9568}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A487250E-BB7C-46C4-9080-3FD396FFFD4B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{162B0A0F-533F-4ADD-B163-5D7558B67DFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10017,7 +10017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A753C-9538-46AF-B82B-72C0532E4C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C9844-EA1F-4677-A174-5EBB906F46E3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11258,18 +11258,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2289CD42-E0B9-4DCB-82E7-3DDAFAB30F11}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2DBC30A2-8FEF-42DB-8B20-1D10AD2F6BA7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{26F2C3B6-5460-4F48-9870-4C7B8622FE59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5A38F573-C41E-470E-95A7-762A62AA65B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C835E233-AD72-420D-AA15-EE512744E47C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DB66D1BF-7285-42D0-93B8-4F8EBD2EEF64}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4225BCFB-9B3F-48FD-B680-B268930F4EB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B41E5D13-57EA-4A30-AA14-9E89D8863B8C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9008A65A-A1AE-4AFC-9662-5F4649A5551F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{86CABE2E-1C08-46DA-95D7-8261ADD2BA44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F5F4AF85-0ECC-4531-89B9-B6586BA6A37F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E8D2CBDC-CB8A-42AB-92B0-72C4790DD33F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{75EEFDBD-355B-4608-8C5F-1078B318A09F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FD8FADD2-6082-4DF6-BBD5-C8524B8A39D8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AACD1AEB-7EDF-44BE-8805-C5BFE43646BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E802DD2B-9A45-4F7F-B561-C21D8622A8D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{62F0C79A-CCAA-4059-A2C7-724529519628}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{65BF6629-CF57-4FE8-BDBF-57130130125E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{225180B7-DDE5-47A4-848D-7C9CCF67F89F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AA43A5AD-8174-443A-8411-F11538D2125E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{864C8FFE-4108-4506-B815-439F3A84DAEB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{445E91BB-D23A-45F8-979E-D9DCFA4B173D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8355CFB9-FA8E-46E8-96CC-6F00A2993484}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CA98253F-E802-4A1A-B438-24E62EE2E763}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11282,7 +11282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31947D8A-1C11-4E43-96AB-BA8DE8F0759F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB17E9CF-40C9-4418-B7D0-72AE7BD1A3F6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12523,18 +12523,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{45097BE1-4560-4AC5-8479-E818772A1108}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FA44F57E-3B71-4614-B21A-E2EB8171A960}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{701EB523-AEE2-48F6-8456-57F46772F78D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3E88AE30-5234-4901-AA1F-ED885F5BBDF3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D6223EB6-A00D-4B79-94B8-1A24DD06D677}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A372D8CA-91F2-44D5-93A3-4722BC964E87}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9B866CB6-9B3E-4477-A4E5-3A5E61E9FF89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED6168D5-E323-4AAF-BACC-B1B34C890BB7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AEE35331-61D8-4658-A7B4-DF91DBB23A1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9B5DA20C-F3E7-406F-99CB-E8F96B37EC6C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DBD4C443-1619-43B5-813F-85C89534C417}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{94C85768-7A57-4FEC-88BA-809FD3CCE399}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{32FCFE03-E8E0-4CAE-BF5B-931A81DD842F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4CF555C6-C071-4A9D-AB91-4DF12AC1407A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0F1982CB-74FF-4390-A332-082788754756}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DA151E43-65A1-45CF-9570-7B1535DD0AD6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4FFF3573-A812-44F6-B437-782B929B293F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FD333EC6-999B-41B1-B500-3B177E138A49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CD4E8075-0908-45BD-B251-9B5F5A9389D8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{26E4534B-353E-4B47-A739-C61FC2DBDEAF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9E5F8EA3-1705-44E4-9D09-17DCBDAAB146}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A2CC6FDD-A654-4C41-900D-DB5C8DE33A42}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3D313B56-1177-4F77-8DBF-4188ECB161E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5BE787B3-A6B1-494D-A577-FD7F757DC10E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12547,7 +12547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBC6DD0-B613-4EF8-89DD-6CBA6F50860B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF22396-9859-4713-8778-8FFE6FB67E11}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13780,18 +13780,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F69FC550-2C86-4CE9-8098-02530C100B24}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5295A245-A44B-49CF-B7F3-AF08DBB16BAE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6E839088-1779-41E9-9721-7D0926FADC89}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{78CFAFB9-4B27-4AD4-A9DB-2BF95130A0E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB8FD231-9DF2-4AB6-8A40-5BC41FBA592A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{45790F93-E84E-40A5-B983-DEB020ED2EE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D40EAC2D-9EC4-4933-968A-6FB9A94F0688}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4BA7283E-E6D0-40BB-9579-DAE2272648D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{39EF6C4F-B3F8-4AF8-AC27-A310BCAD2E68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A85E00BB-858E-462A-BCD3-BC335312F659}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E7E0DD5-4187-4FC9-9991-7A67BB9097D3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD53D741-4ED0-414D-8049-E934B077ABF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{83B87ED7-AA94-4DC4-82A0-5F1C5FB1A4BB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{028E8FB7-06FA-4AD7-AE2F-5454CE5795DF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BE5076D1-6EA4-43E3-B58F-400C05CF3A3F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7D7C1483-5650-44BE-BE22-3E14B8AB53C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{51B4A9DF-14C1-459B-9397-30E98F5CEA1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6BE57D64-B99F-42B6-BC23-33D930E222CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4D7C2E0A-2786-4CC3-889B-C65B7E7C4E27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1C716F4E-CDD5-4174-B9C4-5784D9592C4E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D227B495-F1BA-4F34-B194-8C795E3BDEF1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3A6617B5-0A25-49E2-9D73-459313677B31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{39ED1206-8F02-4F12-B992-FEFF30AB3CFB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0DCAC186-CBA4-4D94-AE33-4741430CA1C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13804,7 +13804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB025BC-F9C8-4244-ACB4-A8D4144D3009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC91B6C6-1E41-4BF6-ABBD-21A2EDED8F75}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15037,18 +15037,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{882603F7-5F2C-4452-91CE-74ADAF0624A1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5382889D-DE8F-4231-84D9-983D50082333}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{85F3283E-E130-4D0B-BCD9-8C5DDF53A4A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C911B166-539D-45CE-B34E-34F33436DAA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F9A3F4BE-5CFE-465B-AA8B-A48CD9234C92}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A9301F6-5A44-4F82-9BB9-93D58A85FF90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6529294D-F165-4C2D-AA0D-011C7642A8D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{89B089DD-0BB2-4FB2-8F1C-6FE6CD77D664}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2B7DACBD-2998-417D-BE2A-6D74B6C75A66}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5AC2E483-4389-49ED-8D9B-454EEDD22E33}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D641BF2F-C8CC-4C6E-8646-AD1C136600C4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E6D3E238-9447-4B31-ABFE-7E73A0249227}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7AD5C421-B0E2-4F03-A2E1-7B733071EA91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BEE0E9A8-6F8E-4813-B661-73341CA9101D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4E5F9910-24FB-46F6-A6FA-45BFDDF1E541}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5ABFD32E-44A5-4C31-94A0-B63A589086F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{14471EF8-4675-4212-B68C-182DCF061A43}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{959BADEB-717F-4306-B7DA-ED18AAC49009}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A1CAAB32-0BA4-4050-8471-A0C113CB3CB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BC257FC1-2583-4376-B066-BF44950DA7DF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8D3E8C5D-96B7-4EE6-8B4B-959C69EF93D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{726CB2BC-3CE4-4455-A7A4-36E6FF1D36DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D58DCE80-B28D-4BDE-BEB4-16AA5E9C83E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2D3F39FE-4154-427B-B069-7C114E9BE22D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15061,7 +15061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EA547F-8933-4B09-AA95-B194941B90D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C4BA6-392C-406C-B27C-37B67F2F4F61}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16294,18 +16294,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4918A367-3BD6-4048-9470-0C2C44EF4725}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B49EAC6F-88EC-469A-8ED8-213F9746567D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C2D2CA39-3AD9-4445-8135-CA559A43BA96}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3BF1C6BB-8D2E-4BA5-ABB1-5D03A85B56B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0F14D014-2445-4BA6-A42E-0ABF44218801}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B1717320-5EC2-46C2-8D7F-5921B290EB56}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CCBD116F-5BD1-4429-BB73-738F6585F1BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{56059287-B245-4303-B68D-21E9F212CAA7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4DC525C3-B8E4-4421-A9F1-AFB6CA113BAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9209E378-01E6-430C-AD2C-79FDF8B3B970}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6DAC7B5D-0046-4615-AC1E-4B33AA289816}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{188C5710-6F3A-47BF-99C1-48DDB4419BE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3679CEAC-55F3-4E63-8F7A-F0CDBA26E124}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0059E82D-C9FC-4E29-B641-19CDC4C51A4E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DE68CF14-B05B-4A46-9977-FA569AE1DBFE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FAA70A93-468C-4A99-99B5-F4B6CD4BA556}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{108EB6CD-6127-40E0-B8F6-2B66462B2B25}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A7665C81-213C-49C6-928C-972B325B3588}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CFEABC7C-3F36-4084-9A45-7CB80AA812B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A3687A07-D85E-4BEE-83CD-5AE78A9E4B8E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{84717FC4-AB3D-4488-ADC3-97F28AC30045}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0779B424-20DC-43D8-AAF4-B988462335A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E95CA254-29E0-488C-AA70-59097520398A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3E0931C4-4D13-4742-AD8D-F90CAEA97918}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
